--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H2">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I2">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J2">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>3151.131784463988</v>
+        <v>9951.465072260749</v>
       </c>
       <c r="R2">
-        <v>28360.1860601759</v>
+        <v>89563.18565034674</v>
       </c>
       <c r="S2">
-        <v>0.05465445768133011</v>
+        <v>0.09016374512062107</v>
       </c>
       <c r="T2">
-        <v>0.05465445768133013</v>
+        <v>0.09016374512062106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H3">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I3">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J3">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>4841.09544678061</v>
+        <v>8195.098447867151</v>
       </c>
       <c r="R3">
-        <v>43569.85902102549</v>
+        <v>73755.88603080437</v>
       </c>
       <c r="S3">
-        <v>0.08396584602771774</v>
+        <v>0.07425045079558618</v>
       </c>
       <c r="T3">
-        <v>0.08396584602771778</v>
+        <v>0.07425045079558616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H4">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I4">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J4">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>2419.061548028722</v>
+        <v>4728.011762948589</v>
       </c>
       <c r="R4">
-        <v>21771.5539322585</v>
+        <v>42552.10586653731</v>
       </c>
       <c r="S4">
-        <v>0.04195714620921773</v>
+        <v>0.04283743593795784</v>
       </c>
       <c r="T4">
-        <v>0.04195714620921774</v>
+        <v>0.04283743593795784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H5">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I5">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J5">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>3850.366389421441</v>
+        <v>4778.859967398897</v>
       </c>
       <c r="R5">
-        <v>34653.29750479297</v>
+        <v>43009.73970659007</v>
       </c>
       <c r="S5">
-        <v>0.06678225516488388</v>
+        <v>0.04329813840866021</v>
       </c>
       <c r="T5">
-        <v>0.06678225516488392</v>
+        <v>0.0432981384086602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H6">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I6">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J6">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>1934.122722551353</v>
+        <v>3599.58755644875</v>
       </c>
       <c r="R6">
-        <v>17407.10450296219</v>
+        <v>32396.28800803875</v>
       </c>
       <c r="S6">
-        <v>0.03354617823708794</v>
+        <v>0.03261351897658555</v>
       </c>
       <c r="T6">
-        <v>0.03354617823708796</v>
+        <v>0.03261351897658555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H7">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I7">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J7">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>2539.061776637363</v>
+        <v>6022.420872408843</v>
       </c>
       <c r="R7">
-        <v>22851.55598973627</v>
+        <v>54201.78785167959</v>
       </c>
       <c r="S7">
-        <v>0.0440384769388865</v>
+        <v>0.05456523402394067</v>
       </c>
       <c r="T7">
-        <v>0.04403847693888652</v>
+        <v>0.05456523402394066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>1029.631957294064</v>
+        <v>1920.84331466673</v>
       </c>
       <c r="R8">
-        <v>9266.687615646571</v>
+        <v>17287.58983200057</v>
       </c>
       <c r="S8">
-        <v>0.01785833791995652</v>
+        <v>0.01740351051655905</v>
       </c>
       <c r="T8">
-        <v>0.01785833791995652</v>
+        <v>0.01740351051655905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>1581.82739449089</v>
@@ -1013,10 +1013,10 @@
         <v>14236.44655041801</v>
       </c>
       <c r="S9">
-        <v>0.02743583077598163</v>
+        <v>0.01433190801415252</v>
       </c>
       <c r="T9">
-        <v>0.02743583077598163</v>
+        <v>0.01433190801415251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>790.4280896126658</v>
+        <v>912.6063067678822</v>
       </c>
       <c r="R10">
-        <v>7113.852806513992</v>
+        <v>8213.45676091094</v>
       </c>
       <c r="S10">
-        <v>0.01370949281996421</v>
+        <v>0.008268531501783945</v>
       </c>
       <c r="T10">
-        <v>0.01370949281996421</v>
+        <v>0.008268531501783943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>1258.106786071353</v>
+        <v>922.4210860865008</v>
       </c>
       <c r="R11">
-        <v>11322.96107464217</v>
+        <v>8301.789774778506</v>
       </c>
       <c r="S11">
-        <v>0.02182109438803663</v>
+        <v>0.008357456826293781</v>
       </c>
       <c r="T11">
-        <v>0.02182109438803663</v>
+        <v>0.008357456826293779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>631.9743827553752</v>
+        <v>694.7965594166901</v>
       </c>
       <c r="R12">
-        <v>5687.769444798377</v>
+        <v>6253.169034750211</v>
       </c>
       <c r="S12">
-        <v>0.01096120997804086</v>
+        <v>0.006295099207909821</v>
       </c>
       <c r="T12">
-        <v>0.01096120997804086</v>
+        <v>0.00629509920790982</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>829.6381508570789</v>
+        <v>1162.454652342751</v>
       </c>
       <c r="R13">
-        <v>7466.74335771371</v>
+        <v>10462.09187108476</v>
       </c>
       <c r="S13">
-        <v>0.01438956740254142</v>
+        <v>0.01053224467222104</v>
       </c>
       <c r="T13">
-        <v>0.01438956740254142</v>
+        <v>0.01053224467222104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H14">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>2430.639170885594</v>
+        <v>6806.193434312064</v>
       </c>
       <c r="R14">
-        <v>21875.75253797034</v>
+        <v>61255.74090880857</v>
       </c>
       <c r="S14">
-        <v>0.04215795301190399</v>
+        <v>0.06166648685363321</v>
       </c>
       <c r="T14">
-        <v>0.042157953011904</v>
+        <v>0.0616664868536332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H15">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>3734.199972516357</v>
+        <v>5604.946090288895</v>
       </c>
       <c r="R15">
-        <v>33607.79975264722</v>
+        <v>50444.51481260006</v>
       </c>
       <c r="S15">
-        <v>0.06476741955945692</v>
+        <v>0.05078276686196743</v>
       </c>
       <c r="T15">
-        <v>0.06476741955945695</v>
+        <v>0.05078276686196743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H16">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>1865.95361844631</v>
+        <v>3233.67085998528</v>
       </c>
       <c r="R16">
-        <v>16793.58256601678</v>
+        <v>29103.03773986752</v>
       </c>
       <c r="S16">
-        <v>0.03236382672965422</v>
+        <v>0.02929818605668446</v>
       </c>
       <c r="T16">
-        <v>0.03236382672965422</v>
+        <v>0.02929818605668446</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H17">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>2969.996816550484</v>
+        <v>3268.447921730784</v>
       </c>
       <c r="R17">
-        <v>26729.97134895435</v>
+        <v>29416.03129557706</v>
       </c>
       <c r="S17">
-        <v>0.05151278220864856</v>
+        <v>0.02961327836806746</v>
       </c>
       <c r="T17">
-        <v>0.05151278220864858</v>
+        <v>0.02961327836806745</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H18">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>1491.893951852884</v>
+        <v>2461.897722097632</v>
       </c>
       <c r="R18">
-        <v>13427.04556667596</v>
+        <v>22157.07949887868</v>
       </c>
       <c r="S18">
-        <v>0.02587599009936222</v>
+        <v>0.02230565219456887</v>
       </c>
       <c r="T18">
-        <v>0.02587599009936224</v>
+        <v>0.02230565219456887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H19">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>1958.516315319047</v>
+        <v>4118.967519135455</v>
       </c>
       <c r="R19">
-        <v>17626.64683787142</v>
+        <v>37070.70767221911</v>
       </c>
       <c r="S19">
-        <v>0.03396927021635413</v>
+        <v>0.0373192826240887</v>
       </c>
       <c r="T19">
-        <v>0.03396927021635415</v>
+        <v>0.03731928262408869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H20">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>250.8663177052733</v>
+        <v>283.5067384564124</v>
       </c>
       <c r="R20">
-        <v>2257.79685934746</v>
+        <v>2551.560646107712</v>
       </c>
       <c r="S20">
-        <v>0.004351123178120659</v>
+        <v>0.002568669951665261</v>
       </c>
       <c r="T20">
-        <v>0.004351123178120662</v>
+        <v>0.002568669951665261</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H21">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>385.4068542551288</v>
+        <v>233.4697067631076</v>
       </c>
       <c r="R21">
-        <v>3468.66168829616</v>
+        <v>2101.227360867968</v>
       </c>
       <c r="S21">
-        <v>0.006684646675151527</v>
+        <v>0.002115316989118746</v>
       </c>
       <c r="T21">
-        <v>0.006684646675151531</v>
+        <v>0.002115316989118746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H22">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>192.5851104826489</v>
+        <v>134.6960658118045</v>
       </c>
       <c r="R22">
-        <v>1733.26599434384</v>
+        <v>1212.26459230624</v>
       </c>
       <c r="S22">
-        <v>0.003340271207577769</v>
+        <v>0.001220393344941614</v>
       </c>
       <c r="T22">
-        <v>0.00334027120757777</v>
+        <v>0.001220393344941614</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H23">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>306.5334311603889</v>
+        <v>136.1446774981636</v>
       </c>
       <c r="R23">
-        <v>2758.8008804435</v>
+        <v>1225.302097483472</v>
       </c>
       <c r="S23">
-        <v>0.005316635287634651</v>
+        <v>0.001233518272167829</v>
       </c>
       <c r="T23">
-        <v>0.005316635287634654</v>
+        <v>0.001233518272167829</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H24">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>153.9784047715067</v>
+        <v>102.5484509574062</v>
       </c>
       <c r="R24">
-        <v>1385.80564294356</v>
+        <v>922.9360586166561</v>
       </c>
       <c r="S24">
-        <v>0.00267066145850023</v>
+        <v>0.0009291247396738907</v>
       </c>
       <c r="T24">
-        <v>0.002670661458500231</v>
+        <v>0.0009291247396738907</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H25">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>202.1385082882445</v>
+        <v>171.5724153931609</v>
       </c>
       <c r="R25">
-        <v>1819.2465745942</v>
+        <v>1544.151738538448</v>
       </c>
       <c r="S25">
-        <v>0.003505969062124227</v>
+        <v>0.001554505936453429</v>
       </c>
       <c r="T25">
-        <v>0.003505969062124228</v>
+        <v>0.001554505936453429</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H26">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>1363.214083792218</v>
+        <v>2661.976883784328</v>
       </c>
       <c r="R26">
-        <v>12268.92675412996</v>
+        <v>23957.79195405895</v>
       </c>
       <c r="S26">
-        <v>0.02364411632053925</v>
+        <v>0.02411843919701258</v>
       </c>
       <c r="T26">
-        <v>0.02364411632053927</v>
+        <v>0.02411843919701258</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H27">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>2094.310852554928</v>
+        <v>2192.155875557252</v>
       </c>
       <c r="R27">
-        <v>18848.79767299435</v>
+        <v>19729.40288001527</v>
       </c>
       <c r="S27">
-        <v>0.03632454358997368</v>
+        <v>0.01986169696554175</v>
       </c>
       <c r="T27">
-        <v>0.0363245435899737</v>
+        <v>0.01986169696554175</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H28">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>1046.512490557072</v>
+        <v>1264.724131355496</v>
       </c>
       <c r="R28">
-        <v>9418.612415013649</v>
+        <v>11382.51718219946</v>
       </c>
       <c r="S28">
-        <v>0.01815112046729715</v>
+        <v>0.011458841828757</v>
       </c>
       <c r="T28">
-        <v>0.01815112046729715</v>
+        <v>0.011458841828757</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H29">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>1665.71062362355</v>
+        <v>1278.325821543402</v>
       </c>
       <c r="R29">
-        <v>14991.39561261195</v>
+        <v>11504.93239389061</v>
       </c>
       <c r="S29">
-        <v>0.0288907341917663</v>
+        <v>0.01158207788680543</v>
       </c>
       <c r="T29">
-        <v>0.02889073419176631</v>
+        <v>0.01158207788680543</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H30">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>836.722649355348</v>
+        <v>962.8751944408389</v>
       </c>
       <c r="R30">
-        <v>7530.503844198132</v>
+        <v>8665.876749967549</v>
       </c>
       <c r="S30">
-        <v>0.01451244370535938</v>
+        <v>0.008723985160389002</v>
       </c>
       <c r="T30">
-        <v>0.01451244370535939</v>
+        <v>0.008723985160389001</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H31">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>1098.42590227286</v>
+        <v>1610.973362249924</v>
       </c>
       <c r="R31">
-        <v>9885.833120455742</v>
+        <v>14498.76026024932</v>
       </c>
       <c r="S31">
-        <v>0.01905152691100817</v>
+        <v>0.01459598064961246</v>
       </c>
       <c r="T31">
-        <v>0.01905152691100818</v>
+        <v>0.01459598064961246</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H32">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I32">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J32">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>1471.966987661752</v>
+        <v>7841.885475870132</v>
       </c>
       <c r="R32">
-        <v>13247.70288895577</v>
+        <v>70576.9692828312</v>
       </c>
       <c r="S32">
-        <v>0.02553036906679508</v>
+        <v>0.07105021805104202</v>
       </c>
       <c r="T32">
-        <v>0.02553036906679509</v>
+        <v>0.07105021805104202</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H33">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I33">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J33">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>2261.388342091446</v>
+        <v>6457.845455418525</v>
       </c>
       <c r="R33">
-        <v>20352.49507882301</v>
+        <v>58120.60909876674</v>
       </c>
       <c r="S33">
-        <v>0.03922240067941615</v>
+        <v>0.05851033264375814</v>
       </c>
       <c r="T33">
-        <v>0.03922240067941617</v>
+        <v>0.05851033264375814</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H34">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I34">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J34">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>1129.999943948998</v>
+        <v>3725.735507725269</v>
       </c>
       <c r="R34">
-        <v>10169.99949554098</v>
+        <v>33531.61956952742</v>
       </c>
       <c r="S34">
-        <v>0.01959915939439877</v>
+        <v>0.03375646342183</v>
       </c>
       <c r="T34">
-        <v>0.01959915939439877</v>
+        <v>0.03375646342183</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H35">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I35">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J35">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>1798.595743781247</v>
+        <v>3765.80456218685</v>
       </c>
       <c r="R35">
-        <v>16187.36169403122</v>
+        <v>33892.24105968166</v>
       </c>
       <c r="S35">
-        <v>0.03119554550176764</v>
+        <v>0.0341195030333309</v>
       </c>
       <c r="T35">
-        <v>0.03119554550176765</v>
+        <v>0.0341195030333309</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H36">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I36">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J36">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>903.4737333800005</v>
+        <v>2836.522378671791</v>
       </c>
       <c r="R36">
-        <v>8131.263600420005</v>
+        <v>25528.70140804612</v>
       </c>
       <c r="S36">
-        <v>0.01567020051990938</v>
+        <v>0.02569988227084238</v>
       </c>
       <c r="T36">
-        <v>0.01567020051990939</v>
+        <v>0.02569988227084238</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H37">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I37">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J37">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>1186.054843301241</v>
+        <v>4745.746925300828</v>
       </c>
       <c r="R37">
-        <v>10674.49358971117</v>
+        <v>42711.72232770746</v>
       </c>
       <c r="S37">
-        <v>0.0205713974136346</v>
+        <v>0.0429981226957758</v>
       </c>
       <c r="T37">
-        <v>0.02057139741363461</v>
+        <v>0.0429981226957758</v>
       </c>
     </row>
   </sheetData>
